--- a/학습자료/단답형/오답노트/오답노트_무한반복_객관식_한국사 조약.xlsx
+++ b/학습자료/단답형/오답노트/오답노트_무한반복_객관식_한국사 조약.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E2"/>
+  <dimension ref="A1:E4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -476,14 +476,64 @@
           <t>제물포조약: 1882년</t>
         </is>
       </c>
-      <c r="D2" t="inlineStr">
-        <is>
-          <t>20230216</t>
-        </is>
+      <c r="D2" t="n">
+        <v>20230216</v>
       </c>
       <c r="E2" t="inlineStr">
         <is>
           <t>12시 18분</t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>제10관 일본국 인민이 조선국 항구에서 죄를 지었거나 조선국 인민에게 관계되는 사건은 모두 일본국 관원이 심판한다. 조선국 인민이 죄를 범하고 일본국 인민과 관계되는 사건은 모두 조선국 관원이 조사한다. 단, 각각 해당 국가의 국법으로 심판하되 공평하도록 하여야 한다</t>
+        </is>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>조일수호조규부록</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>강화도조약(조일수호조규): 1876년 2월</t>
+        </is>
+      </c>
+      <c r="D3" t="n">
+        <v>20230218</v>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>19시 51분</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>청과 일본은 조선에 대한 파병권을 동등하게 가졌다</t>
+        </is>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>시모노세키조약</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>텐진조약: 1885년</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>20230218</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>19시 53분</t>
         </is>
       </c>
     </row>
